--- a/PDC/PDC.xlsx
+++ b/PDC/PDC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user\lissage\Outil_de_lissage_test\PDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user\lissage\Outil_de_lissage_v2\PDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13957673-A0D1-4734-AFF7-C1DBADC74F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAF47E5-D814-4E47-BD80-8E694227BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72486B3E-3BE6-4106-9053-BC29FA67ABE6}"/>
   </bookViews>
@@ -160,7 +160,28 @@
     <cellStyle name="Milliers 2" xfId="1" xr:uid="{E65B7917-78E1-4E71-8C97-0EC066827CBE}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -493,7 +514,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="A1:H22"/>
+      <selection activeCell="A2" sqref="A2:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,6 +1095,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF($J4="alerte",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>